--- a/_doc/batch/hisManage_Batch.xlsx
+++ b/_doc/batch/hisManage_Batch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\保牛\文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\保牛\Source Code\taifCattle\_doc\batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB6B45B-DD52-47B6-A2D6-300AA5F772D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343BFA48-BC9F-4B42-A75A-72856EBB3FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -372,31 +373,33 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1"/>
+    <col min="4" max="4" width="48" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/_doc/batch/hisManage_Batch.xlsx
+++ b/_doc/batch/hisManage_Batch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\保牛\Source Code\taifCattle\_doc\batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343BFA48-BC9F-4B42-A75A-72856EBB3FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6915863F-0117-46D4-B915-1A526E26A720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,23 +27,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>牛籍編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>類型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>證號（牧場登記證、飼養登記證、身分證）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>旅程備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類型（出生、停留、勸售）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛籍編號（必填）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期（必填）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,15 +372,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1"/>
+    <col min="3" max="3" width="30.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.875" style="1"/>
@@ -388,19 +386,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
